--- a/SupplyWebApp/wwwroot/Upload/Sample Sales Forecast Upload.xlsx
+++ b/SupplyWebApp/wwwroot/Upload/Sample Sales Forecast Upload.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TempUserProfiles\NetworkService\AppData\Local\Packages\oice_16_974fa576_32c1d314_2da2\AC\Temp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TempUserProfiles\NetworkService\AppData\Local\Packages\oice_16_974fa576_32c1d314_365e\AC\Temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D0C65C90-9465-428E-8858-4BC27EC5CDD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B46D2F6D-AFF9-479B-8ACF-9E2479B02A04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-60" yWindow="-60" windowWidth="15480" windowHeight="11640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
